--- a/00_Planeamento/Cronograma.xlsx
+++ b/00_Planeamento/Cronograma.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\formatar pc3\portatilAulas\Curso Leim\3 Ano\6 Semestre\PRJ\PFC-Rubiks-Cube\Projeto\PRJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fafito\Documents\Projeto\FINAL\00_Planeamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83BA4C9-494A-4E6C-9355-54380D056989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE85E33B-2F48-43AA-B582-1B353FACC47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{519A26D9-506A-4222-9659-FD614D17F973}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Actividades</t>
   </si>
@@ -112,13 +112,19 @@
   </si>
   <si>
     <t>Setembro (semanas)</t>
+  </si>
+  <si>
+    <t>Challenge</t>
+  </si>
+  <si>
+    <t>Firebase/ Tipos de Utilizadores</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +142,13 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -197,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -259,37 +272,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -341,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,6 +337,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -367,116 +394,45 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,7 +751,7 @@
   <dimension ref="B1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="M21" sqref="M21:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,715 +760,782 @@
     <col min="2" max="2" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="C1" s="27">
+    <row r="1" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="35">
         <v>2021</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-    </row>
-    <row r="2" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19"/>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="37"/>
+    </row>
+    <row r="3" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="30" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31" t="s">
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="30" t="s">
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="31" t="s">
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="30" t="s">
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-    </row>
-    <row r="3" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+    </row>
+    <row r="4" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C4" s="7">
         <v>3</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D4" s="5">
         <v>4</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E4" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F4" s="6">
         <v>2</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G4" s="7">
         <v>3</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H4" s="5">
         <v>4</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I4" s="8">
         <v>1</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J4" s="6">
         <v>2</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K4" s="7">
         <v>3</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L4" s="5">
         <v>4</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M4" s="8">
         <v>1</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N4" s="6">
         <v>2</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O4" s="7">
         <v>3</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P4" s="5">
         <v>4</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q4" s="8">
         <v>1</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R4" s="6">
         <v>2</v>
       </c>
-      <c r="S3" s="13">
+      <c r="S4" s="7">
         <v>3</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T4" s="5">
         <v>4</v>
       </c>
-      <c r="U3" s="14">
+      <c r="U4" s="8">
         <v>1</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V4" s="6">
         <v>2</v>
       </c>
-      <c r="W3" s="13">
+      <c r="W4" s="7">
         <v>3</v>
       </c>
-      <c r="X3" s="11">
+      <c r="X4" s="5">
         <v>4</v>
       </c>
-      <c r="Y3" s="14">
+      <c r="Y4" s="8">
         <v>1</v>
       </c>
-      <c r="Z3" s="12">
+      <c r="Z4" s="6">
         <v>2</v>
       </c>
-      <c r="AA3" s="13">
+      <c r="AA4" s="7">
         <v>3</v>
       </c>
-      <c r="AB3" s="11">
+      <c r="AB4" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
+    <row r="5" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="29"/>
-    </row>
-    <row r="5" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="15"/>
+    </row>
+    <row r="6" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="24"/>
-    </row>
-    <row r="6" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="15"/>
+    </row>
+    <row r="7" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="24"/>
-    </row>
-    <row r="7" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="15"/>
+    </row>
+    <row r="8" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="24"/>
-    </row>
-    <row r="8" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="15"/>
+    </row>
+    <row r="9" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="24"/>
-    </row>
-    <row r="9" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="27"/>
+    </row>
+    <row r="10" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="33"/>
-    </row>
-    <row r="10" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="27"/>
+    </row>
+    <row r="11" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="24"/>
-    </row>
-    <row r="11" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="15"/>
+    </row>
+    <row r="12" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="33"/>
-    </row>
-    <row r="12" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="27"/>
+    </row>
+    <row r="13" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="33"/>
-    </row>
-    <row r="13" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="27"/>
+    </row>
+    <row r="14" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="24"/>
-    </row>
-    <row r="14" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="15"/>
+    </row>
+    <row r="15" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="24"/>
-    </row>
-    <row r="15" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="15"/>
+    </row>
+    <row r="16" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="35"/>
-    </row>
-    <row r="16" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="29"/>
+    </row>
+    <row r="17" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="24"/>
-    </row>
-    <row r="17" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="15"/>
+    </row>
+    <row r="18" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="33"/>
-    </row>
-    <row r="18" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="27"/>
+    </row>
+    <row r="19" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="33"/>
-    </row>
-    <row r="19" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="27"/>
+    </row>
+    <row r="20" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="33"/>
-    </row>
-    <row r="20" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="15" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+    </row>
+    <row r="21" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="24"/>
-    </row>
-    <row r="21" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="15"/>
+    </row>
+    <row r="22" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="40"/>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="31"/>
+    </row>
+    <row r="23" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="27"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="17"/>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
@@ -1611,52 +1634,65 @@
       <c r="T30" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="O20:AB20"/>
-    <mergeCell ref="Z21:AB21"/>
+  <mergeCells count="56">
+    <mergeCell ref="O22:AB22"/>
+    <mergeCell ref="M20:AB20"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="D18:X18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="Q10:AB10"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="C23:V23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="C24:X24"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C2:AB2"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="I9:T9"/>
+    <mergeCell ref="U9:AB9"/>
     <mergeCell ref="C20:L20"/>
-    <mergeCell ref="C21:N21"/>
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="D4:AB4"/>
-    <mergeCell ref="O21:Y21"/>
-    <mergeCell ref="Q19:Y19"/>
-    <mergeCell ref="O17:X17"/>
-    <mergeCell ref="I18:X18"/>
-    <mergeCell ref="K9:X9"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="F14:AB14"/>
+    <mergeCell ref="I15:AB15"/>
+    <mergeCell ref="M16:AB16"/>
+    <mergeCell ref="P17:AB17"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="Y19:AB19"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="N11:AB11"/>
+    <mergeCell ref="N12:AB12"/>
+    <mergeCell ref="O13:AB13"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="O21:AB21"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="C22:N22"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="Y3:AB3"/>
     <mergeCell ref="D5:AB5"/>
-    <mergeCell ref="G6:AB6"/>
-    <mergeCell ref="I7:AB7"/>
-    <mergeCell ref="K8:AB8"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="F13:AB13"/>
-    <mergeCell ref="I14:AB14"/>
-    <mergeCell ref="M15:AB15"/>
-    <mergeCell ref="P16:AB16"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="C12:M12"/>
-    <mergeCell ref="N10:AB10"/>
-    <mergeCell ref="N11:AB11"/>
-    <mergeCell ref="O12:AB12"/>
-    <mergeCell ref="C1:T1"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="I19:X19"/>
+    <mergeCell ref="D6:AB6"/>
+    <mergeCell ref="G7:AB7"/>
+    <mergeCell ref="I8:AB8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>